--- a/energy_vs_income.xlsx
+++ b/energy_vs_income.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\Una\DataSkills\Projects\income_and_bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F294273-51E3-441D-8BD0-9563DBF6C549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB01F7-D597-44F1-9809-CF33B27BA7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="earnings_energy_comparison" sheetId="5" r:id="rId1"/>
-    <sheet name="median weekly pay agg by year" sheetId="4" r:id="rId2"/>
-    <sheet name="weeklypay_data" sheetId="1" r:id="rId3"/>
-    <sheet name="Notes and references" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Energy_vs_income_Chart" sheetId="8" r:id="rId1"/>
+    <sheet name="earnings_energy_comparison" sheetId="5" r:id="rId2"/>
+    <sheet name="median weekly pay agg by year" sheetId="4" r:id="rId3"/>
+    <sheet name="weeklypay_data" sheetId="1" r:id="rId4"/>
+    <sheet name="Notes and references" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -122,9 +123,6 @@
     <t>average gas(DD) weekly</t>
   </si>
   <si>
-    <t>total weekly energy</t>
-  </si>
-  <si>
     <t>weekly energy as % low income</t>
   </si>
   <si>
@@ -174,9 +172,6 @@
   </si>
   <si>
     <t>housing costs</t>
-  </si>
-  <si>
-    <t>net low income</t>
   </si>
   <si>
     <t>weekly energy as % low income - housing</t>
@@ -307,6 +302,12 @@
   <si>
     <t>energy cap. Lots of useful summaries of prepaid vs dd meters etc</t>
   </si>
+  <si>
+    <t>net low income (£)</t>
+  </si>
+  <si>
+    <t>total weekly energy (£)</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +319,7 @@
     <numFmt numFmtId="165" formatCode="0.0&quot;0&quot;"/>
     <numFmt numFmtId="166" formatCode="General_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -426,8 +427,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,8 +620,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="40" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -690,15 +723,75 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{B467CDA0-A7BF-4B08-800B-579DA99E11DA}"/>
     <cellStyle name="Comma 2 2" xfId="7" xr:uid="{9E700CE8-6387-4340-AA69-7E38B6E7D253}"/>
     <cellStyle name="Comma 3" xfId="6" xr:uid="{429F34C0-4ABA-450D-B237-DD076028F6B8}"/>
+    <cellStyle name="Comma 4" xfId="18" xr:uid="{48C6FF62-08B0-4B09-B344-6B57D8CCF41F}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{95DD4ABF-9460-49CF-ACC0-B11A080B012C}"/>
     <cellStyle name="Hyperlink 2 2" xfId="13" xr:uid="{DFDDE22A-C837-468C-B82A-C05EF49639D4}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="19" xr:uid="{E3FF6716-4905-4AA4-B446-6B1DDD325D39}"/>
     <cellStyle name="Hyperlink 3" xfId="9" xr:uid="{4DAEB9A9-5FE3-4CF3-822A-AA9AC9AF7519}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="20" xr:uid="{B2703EB4-8A7C-475A-AC00-B942951E8BD3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{3D217E33-5A58-48FB-B2BE-502D54124BE6}"/>
     <cellStyle name="Normal 2 2" xfId="10" xr:uid="{AA9462EA-BC5D-4A12-AF7D-0D0B8CEB3C90}"/>
@@ -708,6 +801,7 @@
     <cellStyle name="Normal 4 2 2" xfId="16" xr:uid="{497BD55E-D4D0-4879-BB21-DE64C7C89341}"/>
     <cellStyle name="Normal 4 3" xfId="15" xr:uid="{20FE852C-6128-401B-9BF8-AE3075A33D8A}"/>
     <cellStyle name="Normal 5" xfId="3" xr:uid="{B9D4CB12-6DC4-40FA-8282-A9AC77E53222}"/>
+    <cellStyle name="Normal 6" xfId="17" xr:uid="{D4697D8B-2634-4195-AAE0-EE065D6CBBE4}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -728,6 +822,2285 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>net low income and weekly energy</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>net low income (£)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>earnings_energy_comparison!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>earnings_energy_comparison!$E$3:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>earnings_energy_comparison!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>220.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241.94999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>283.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F63D-4DFB-A46A-F80A3B8A192B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total weekly energy (£)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>earnings_energy_comparison!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>earnings_energy_comparison!$K$3:$K$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>earnings_energy_comparison!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19.623512552684126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.285599535621465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.588992237223906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.137101949734479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.219700195428132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.091215755243894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.862131991433856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.226909780448068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.480535528636523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.646820845794846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.076616025301625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.903846153846153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F63D-4DFB-A46A-F80A3B8A192B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="636598264"/>
+        <c:axId val="636598592"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>year</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$B$3:$B$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>454.58333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>460.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>465.58333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>470.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>482.08333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>493.58333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>504.83333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>519.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>537.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>579</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>597</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Low income : 60% weekly pay</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$C$3:$C$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$C$4:$C$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>272.75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>276.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>279.34999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>282.45</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>289.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>296.14999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>302.89999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>311.84999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>322.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>328.2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>347.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>358.2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>housing costs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$D$3:$D$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$D$4:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>51.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>56.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>59.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>59.300000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>59.3</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0.00">
+                        <c:v>62.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="0.00">
+                        <c:v>67.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="0.00">
+                        <c:v>69.900000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="0.00">
+                        <c:v>74.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="0.00">
+                        <c:v>74.3</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="0.00">
+                        <c:v>74.3</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="0.00">
+                        <c:v>74.3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>average electricity (DD) annual (GBP)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$F$3:$F$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$F$4:$F$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>469.4226527395744</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>496.85117585231609</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>530.62759633564315</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>542.12930138619276</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>531.42441016226292</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>532.7432192726825</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>575.83086355456044</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>627.79930858329965</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>681.98784748909918</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>689.63468398133193</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>753.98403331568466</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>average gas (DD) annual (GBP)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$G$3:$G$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$G$4:$G$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>551</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>610</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>644</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>661</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>624</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>564</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>561</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>580</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>591</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>540</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>550</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>total annual energy bill</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$H$3:$H$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$H$4:$H$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1020.4226527395745</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1106.8511758523161</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1174.6275963356431</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1203.1293013861928</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1155.424410162263</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1096.7432192726824</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1136.8308635545604</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1207.7993085832995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1272.9878474890993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1229.6346839813318</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1303.9840333156847</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>1971</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>average electricity (DD) weekly</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$I$3:$I$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$I$4:$I$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>9.0273587065302774</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.5548303048522332</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.204376852608522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.425563488196016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.219700195428134</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.245061909090047</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.073670452972316</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.073063626601916</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13.115150913251908</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>13.262205461179461</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14.49969294837855</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>average gas(DD) weekly</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$J$3:$J$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$J$4:$J$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>10.596153846153847</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11.73076923076923</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12.384615384615385</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.711538461538462</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.846153846153847</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10.788461538461538</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>11.153846153846153</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>11.365384615384615</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10.384615384615385</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10.576923076923077</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>weekly energy as % low income</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$3:$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>earnings_energy_comparison!$L$3:$L$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>7.1946883786192943</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.7038000490848582</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.0862689232947584</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.1915744201573659</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.6818323925421375</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.1218017069876396</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.2176071282383161</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.4481031843668655</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.590863729809775</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2050033046297521</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.2183696100465244</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10.581754928488596</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-F63D-4DFB-A46A-F80A3B8A192B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weekly energy as % low income - housing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>earnings_energy_comparison!$A$2:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>earnings_energy_comparison!$A$3:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>earnings_energy_comparison!$M$3:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>earnings_energy_comparison!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.8854482919104036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6664848027345425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.274729241402733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.368407774920223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6628398327584843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0307068102093329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.275406020973211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5998800497822163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8632294635924751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3134386946809169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1822101886860583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.351125802693256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F63D-4DFB-A46A-F80A3B8A192B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="648185008"/>
+        <c:axId val="648183696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636598264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636598592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636598592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636598264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="648183696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648185008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="648185008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="648183696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1330,7 +3703,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3302,7 +5675,547 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3805,7 +6718,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4321,7 +7234,121 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A1241A20-317A-45E5-879E-AEC5EAFE229B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA4F4FC-3CEE-4103-9723-4100CF72635C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78426</cdr:x>
+      <cdr:y>0.5718</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96108</cdr:x>
+      <cdr:y>0.6727</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830BD095-12A8-4BF4-A0B0-F563ACEBCEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7297251" y="3479380"/>
+          <a:ext cx="1645227" cy="614009"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>weekly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> energy as % income of 10% or more = fuel poverty</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4458,7 +7485,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4499,7 +7526,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6374,8 +9401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88336EAE-20BD-4B9B-AF86-6EA2BFF7534C}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6386,7 +9413,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -6408,22 +9435,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>25</v>
@@ -6432,13 +9459,13 @@
         <v>26</v>
       </c>
       <c r="K2" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="37" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -6454,8 +9481,13 @@
         <f t="shared" ref="C3:C15" si="0">0.6*B3</f>
         <v>266.64999999999998</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3">
+        <v>50.4</v>
+      </c>
+      <c r="E3" s="39">
+        <f t="shared" ref="E3:E8" si="1">C3-D3</f>
+        <v>216.24999999999997</v>
+      </c>
       <c r="F3" s="40">
         <v>431.30128350510694</v>
       </c>
@@ -6482,9 +9514,12 @@
         <f>100*K3/C3</f>
         <v>6.73817077633535</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="42">
+        <f t="shared" ref="M3:M8" si="2">100*(K3/E3)</f>
+        <v>8.3085930058257631</v>
+      </c>
       <c r="P3" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -6500,8 +9535,13 @@
         <f t="shared" si="0"/>
         <v>272.75</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4">
+        <v>51.9</v>
+      </c>
+      <c r="E4" s="39">
+        <f t="shared" si="1"/>
+        <v>220.85</v>
+      </c>
       <c r="F4" s="40">
         <v>469.4226527395744</v>
       </c>
@@ -6509,31 +9549,34 @@
         <v>551</v>
       </c>
       <c r="H4" s="41">
-        <f t="shared" ref="H4:H14" si="1">G4+F4</f>
+        <f t="shared" ref="H4:H14" si="3">G4+F4</f>
         <v>1020.4226527395745</v>
       </c>
       <c r="I4" s="39">
-        <f t="shared" ref="I4:I14" si="2">F4/52</f>
+        <f t="shared" ref="I4:I14" si="4">F4/52</f>
         <v>9.0273587065302774</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J14" si="3">G4/52</f>
+        <f t="shared" ref="J4:J14" si="5">G4/52</f>
         <v>10.596153846153847</v>
       </c>
       <c r="K4" s="39">
-        <f t="shared" ref="K4:K14" si="4">J4+I4</f>
+        <f t="shared" ref="K4:K14" si="6">J4+I4</f>
         <v>19.623512552684126</v>
       </c>
       <c r="L4" s="42">
-        <f t="shared" ref="L4:L15" si="5">100*K4/C4</f>
+        <f t="shared" ref="L4:L15" si="7">100*K4/C4</f>
         <v>7.1946883786192943</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="M4" s="42">
+        <f t="shared" si="2"/>
+        <v>8.8854482919104036</v>
+      </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -6549,8 +9592,13 @@
         <f t="shared" si="0"/>
         <v>276.3</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="D5">
+        <v>56.1</v>
+      </c>
+      <c r="E5" s="39">
+        <f t="shared" si="1"/>
+        <v>220.20000000000002</v>
+      </c>
       <c r="F5" s="40">
         <v>496.85117585231609</v>
       </c>
@@ -6558,31 +9606,34 @@
         <v>610</v>
       </c>
       <c r="H5" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1106.8511758523161</v>
       </c>
       <c r="I5" s="39">
+        <f t="shared" si="4"/>
+        <v>9.5548303048522332</v>
+      </c>
+      <c r="J5" s="39">
+        <f t="shared" si="5"/>
+        <v>11.73076923076923</v>
+      </c>
+      <c r="K5" s="39">
+        <f t="shared" si="6"/>
+        <v>21.285599535621465</v>
+      </c>
+      <c r="L5" s="42">
+        <f t="shared" si="7"/>
+        <v>7.7038000490848582</v>
+      </c>
+      <c r="M5" s="42">
         <f t="shared" si="2"/>
-        <v>9.5548303048522332</v>
-      </c>
-      <c r="J5" s="39">
-        <f t="shared" si="3"/>
-        <v>11.73076923076923</v>
-      </c>
-      <c r="K5" s="39">
-        <f t="shared" si="4"/>
-        <v>21.285599535621465</v>
-      </c>
-      <c r="L5" s="42">
-        <f t="shared" si="5"/>
-        <v>7.7038000490848582</v>
-      </c>
-      <c r="M5" s="38"/>
+        <v>9.6664848027345425</v>
+      </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -6598,8 +9649,13 @@
         <f t="shared" si="0"/>
         <v>279.34999999999997</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="D6">
+        <v>59.5</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="1"/>
+        <v>219.84999999999997</v>
+      </c>
       <c r="F6" s="40">
         <v>530.62759633564315</v>
       </c>
@@ -6607,26 +9663,29 @@
         <v>644</v>
       </c>
       <c r="H6" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1174.6275963356431</v>
       </c>
       <c r="I6" s="39">
+        <f t="shared" si="4"/>
+        <v>10.204376852608522</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" si="5"/>
+        <v>12.384615384615385</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="6"/>
+        <v>22.588992237223906</v>
+      </c>
+      <c r="L6" s="42">
+        <f t="shared" si="7"/>
+        <v>8.0862689232947584</v>
+      </c>
+      <c r="M6" s="42">
         <f t="shared" si="2"/>
-        <v>10.204376852608522</v>
-      </c>
-      <c r="J6" s="39">
-        <f t="shared" si="3"/>
-        <v>12.384615384615385</v>
-      </c>
-      <c r="K6" s="39">
-        <f t="shared" si="4"/>
-        <v>22.588992237223906</v>
-      </c>
-      <c r="L6" s="42">
-        <f t="shared" si="5"/>
-        <v>8.0862689232947584</v>
-      </c>
-      <c r="M6" s="38"/>
+        <v>10.274729241402733</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
@@ -6641,8 +9700,13 @@
         <f t="shared" si="0"/>
         <v>282.45</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="D7">
+        <v>59.300000000000004</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="1"/>
+        <v>223.14999999999998</v>
+      </c>
       <c r="F7" s="40">
         <v>542.12930138619276</v>
       </c>
@@ -6650,26 +9714,29 @@
         <v>661</v>
       </c>
       <c r="H7" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1203.1293013861928</v>
       </c>
       <c r="I7" s="39">
+        <f t="shared" si="4"/>
+        <v>10.425563488196016</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="5"/>
+        <v>12.711538461538462</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="6"/>
+        <v>23.137101949734479</v>
+      </c>
+      <c r="L7" s="42">
+        <f t="shared" si="7"/>
+        <v>8.1915744201573659</v>
+      </c>
+      <c r="M7" s="42">
         <f t="shared" si="2"/>
-        <v>10.425563488196016</v>
-      </c>
-      <c r="J7" s="39">
-        <f t="shared" si="3"/>
-        <v>12.711538461538462</v>
-      </c>
-      <c r="K7" s="39">
-        <f t="shared" si="4"/>
-        <v>23.137101949734479</v>
-      </c>
-      <c r="L7" s="42">
-        <f t="shared" si="5"/>
-        <v>8.1915744201573659</v>
-      </c>
-      <c r="M7" s="38"/>
+        <v>10.368407774920223</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
@@ -6684,8 +9751,13 @@
         <f t="shared" si="0"/>
         <v>289.25</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D8">
+        <v>59.3</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="1"/>
+        <v>229.95</v>
+      </c>
       <c r="F8" s="40">
         <v>531.42441016226292</v>
       </c>
@@ -6693,26 +9765,29 @@
         <v>624</v>
       </c>
       <c r="H8" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1155.424410162263</v>
       </c>
       <c r="I8" s="39">
+        <f t="shared" si="4"/>
+        <v>10.219700195428134</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="6"/>
+        <v>22.219700195428132</v>
+      </c>
+      <c r="L8" s="42">
+        <f t="shared" si="7"/>
+        <v>7.6818323925421375</v>
+      </c>
+      <c r="M8" s="42">
         <f t="shared" si="2"/>
-        <v>10.219700195428134</v>
-      </c>
-      <c r="J8" s="39">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="K8" s="39">
-        <f t="shared" si="4"/>
-        <v>22.219700195428132</v>
-      </c>
-      <c r="L8" s="42">
-        <f t="shared" si="5"/>
-        <v>7.6818323925421375</v>
-      </c>
-      <c r="M8" s="38"/>
+        <v>9.6628398327584843</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
     </row>
@@ -6741,23 +9816,23 @@
         <v>564</v>
       </c>
       <c r="H9" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1096.7432192726824</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.245061909090047</v>
       </c>
       <c r="J9" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.846153846153847</v>
       </c>
       <c r="K9" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.091215755243894</v>
       </c>
       <c r="L9" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1218017069876396</v>
       </c>
       <c r="M9" s="42">
@@ -6782,7 +9857,7 @@
         <v>67.2</v>
       </c>
       <c r="E10" s="39">
-        <f t="shared" ref="E10:E15" si="6">C10-D10</f>
+        <f t="shared" ref="E10:E15" si="8">C10-D10</f>
         <v>235.7</v>
       </c>
       <c r="F10" s="40">
@@ -6792,27 +9867,27 @@
         <v>561</v>
       </c>
       <c r="H10" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1136.8308635545604</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.073670452972316</v>
       </c>
       <c r="J10" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.788461538461538</v>
       </c>
       <c r="K10" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.862131991433856</v>
       </c>
       <c r="L10" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2176071282383161</v>
       </c>
       <c r="M10" s="42">
-        <f t="shared" ref="M10:M15" si="7">100*(K10/E10)</f>
+        <f t="shared" ref="M10:M15" si="9">100*(K10/E10)</f>
         <v>9.275406020973211</v>
       </c>
       <c r="R10" s="9"/>
@@ -6833,7 +9908,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="E11" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>241.94999999999996</v>
       </c>
       <c r="F11" s="40">
@@ -6843,27 +9918,27 @@
         <v>580</v>
       </c>
       <c r="H11" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1207.7993085832995</v>
       </c>
       <c r="I11" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.073063626601916</v>
       </c>
       <c r="J11" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.153846153846153</v>
       </c>
       <c r="K11" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.226909780448068</v>
       </c>
       <c r="L11" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.4481031843668655</v>
       </c>
       <c r="M11" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5998800497822163</v>
       </c>
       <c r="R11" s="9"/>
@@ -6884,7 +9959,7 @@
         <v>74.3</v>
       </c>
       <c r="E12" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>248.2</v>
       </c>
       <c r="F12" s="40">
@@ -6894,27 +9969,27 @@
         <v>591</v>
       </c>
       <c r="H12" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1272.9878474890993</v>
       </c>
       <c r="I12" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.115150913251908</v>
       </c>
       <c r="J12" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.365384615384615</v>
       </c>
       <c r="K12" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.480535528636523</v>
       </c>
       <c r="L12" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.590863729809775</v>
       </c>
       <c r="M12" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.8632294635924751</v>
       </c>
       <c r="R12" s="9"/>
@@ -6935,7 +10010,7 @@
         <v>74.3</v>
       </c>
       <c r="E13" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>253.89999999999998</v>
       </c>
       <c r="F13" s="40">
@@ -6945,27 +10020,27 @@
         <v>540</v>
       </c>
       <c r="H13" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1229.6346839813318</v>
       </c>
       <c r="I13" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.262205461179461</v>
       </c>
       <c r="J13" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.384615384615385</v>
       </c>
       <c r="K13" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.646820845794846</v>
       </c>
       <c r="L13" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2050033046297521</v>
       </c>
       <c r="M13" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.3134386946809169</v>
       </c>
       <c r="R13" s="9"/>
@@ -6986,7 +10061,7 @@
         <v>74.3</v>
       </c>
       <c r="E14" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>273.09999999999997</v>
       </c>
       <c r="F14" s="40">
@@ -6996,27 +10071,27 @@
         <v>550</v>
       </c>
       <c r="H14" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1303.9840333156847</v>
       </c>
       <c r="I14" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.49969294837855</v>
       </c>
       <c r="J14" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.576923076923077</v>
       </c>
       <c r="K14" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.076616025301625</v>
       </c>
       <c r="L14" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2183696100465244</v>
       </c>
       <c r="M14" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.1822101886860583</v>
       </c>
       <c r="R14" s="9"/>
@@ -7037,7 +10112,7 @@
         <v>74.3</v>
       </c>
       <c r="E15" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>283.89999999999998</v>
       </c>
       <c r="F15" s="38"/>
@@ -7052,40 +10127,40 @@
         <v>37.903846153846153</v>
       </c>
       <c r="L15" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.581754928488596</v>
       </c>
       <c r="M15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.351125802693256</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D17" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D18" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <f>52*B15</f>
@@ -7098,7 +10173,7 @@
     </row>
     <row r="25" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -11175,7 +14250,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -11186,121 +14261,121 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="11"/>
       <c r="C2" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="34" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -11326,158 +14401,328 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD063E04-7185-432A-A444-59F8E0769F97}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H9"/>
+      <selection activeCell="D13" sqref="D13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="18">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2011</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2012</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2013</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2014</v>
+      </c>
+      <c r="J4" s="18">
+        <v>2015</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="18"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="53">
+        <v>24.4</v>
+      </c>
+      <c r="F5" s="55">
+        <v>25.2</v>
+      </c>
+      <c r="G5" s="58">
+        <v>29.3</v>
+      </c>
+      <c r="H5" s="61">
+        <v>32</v>
+      </c>
+      <c r="I5" s="64">
+        <v>30.7</v>
+      </c>
+      <c r="J5" s="68">
+        <v>30.8</v>
+      </c>
+      <c r="K5" s="17">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="26">
+      <c r="L5" s="26">
         <v>36.1</v>
       </c>
-      <c r="G5" s="17">
+      <c r="M5" s="17">
         <v>37.299999999999997</v>
       </c>
-      <c r="H5" s="17">
+      <c r="N5" s="17">
         <v>40.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="54">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F6" s="57">
+        <v>19.8</v>
+      </c>
+      <c r="G6" s="60">
+        <v>19.7</v>
+      </c>
+      <c r="H6" s="62">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I6" s="66">
+        <v>21</v>
+      </c>
+      <c r="J6" s="67">
+        <v>21</v>
+      </c>
+      <c r="K6" s="17">
         <v>22.4</v>
       </c>
-      <c r="F6" s="26">
+      <c r="L6" s="26">
         <v>23.6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="M6" s="17">
         <v>24.5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="N6" s="17">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="53">
+        <v>6.6</v>
+      </c>
+      <c r="F7" s="56">
+        <v>6.9</v>
+      </c>
+      <c r="G7" s="59">
+        <v>7.1</v>
+      </c>
+      <c r="H7" s="63">
         <v>7.4</v>
       </c>
-      <c r="F7" s="26">
+      <c r="I7" s="65">
+        <v>7.6</v>
+      </c>
+      <c r="J7" s="69">
         <v>7.5</v>
       </c>
-      <c r="G7" s="17">
+      <c r="K7" s="17">
+        <v>7.4</v>
+      </c>
+      <c r="L7" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="M7" s="17">
         <v>8.1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="N7" s="17">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="25"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="25"/>
       <c r="D9" s="15"/>
       <c r="E9" s="17">
-        <f>SUM(E5:E7)</f>
-        <v>62.599999999999994</v>
+        <f t="shared" ref="E9:J9" si="0">SUM(E5:E7)</f>
+        <v>50.4</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" ref="F9:H9" si="0">SUM(F5:F7)</f>
-        <v>67.2</v>
+        <f t="shared" si="0"/>
+        <v>51.9</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>69.899999999999991</v>
+        <v>56.1</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>59.300000000000004</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>59.3</v>
+      </c>
+      <c r="K9" s="17">
+        <f>SUM(K5:K7)</f>
+        <v>62.599999999999994</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" ref="L9:N9" si="1">SUM(L5:L7)</f>
+        <v>67.2</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="1"/>
+        <v>69.899999999999991</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="1"/>
         <v>74.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>50.4</v>
+      </c>
+      <c r="E11">
+        <v>51.9</v>
+      </c>
+      <c r="F11">
+        <v>56.1</v>
+      </c>
+      <c r="G11">
+        <v>59.5</v>
+      </c>
+      <c r="H11">
+        <v>59.300000000000004</v>
+      </c>
+      <c r="I11">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>59.300000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>59.3</v>
       </c>
     </row>
   </sheetData>
